--- a/biology/Zoologie/Gigantactis/Gigantactis.xlsx
+++ b/biology/Zoologie/Gigantactis/Gigantactis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gigantactis est un genre de poissons de la famille des Gigantactinidae, vivant dans les abysses et possédant un illicium.
-Les Gigantactis ne sont pas des exemples habituels parmi les lophiiformes. Ils sont allongés avec des muscles puissants qui leur permettent une vitesse de pointe honorable. Leur leurre lumineux est très allongé et peut mesurer 4 à 5 fois la taille totale du poisson. La fonction exacte de ce leurre n'est pas encore connue[1].
+Les Gigantactis ne sont pas des exemples habituels parmi les lophiiformes. Ils sont allongés avec des muscles puissants qui leur permettent une vitesse de pointe honorable. Leur leurre lumineux est très allongé et peut mesurer 4 à 5 fois la taille totale du poisson. La fonction exacte de ce leurre n'est pas encore connue.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon FishBase et WRMS :
 Gigantactis balushkini Kharin, 1984
